--- a/biology/Médecine/Rameau_méningé_du_nerf_mandibulaire/Rameau_méningé_du_nerf_mandibulaire.xlsx
+++ b/biology/Médecine/Rameau_méningé_du_nerf_mandibulaire/Rameau_méningé_du_nerf_mandibulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_m%C3%A9ning%C3%A9_du_nerf_mandibulaire</t>
+          <t>Rameau_méningé_du_nerf_mandibulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau méningé du nerf mandibulaire est une branche du nerf mandibulaire qui innerve la dure-mère.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rameau_m%C3%A9ning%C3%A9_du_nerf_mandibulaire</t>
+          <t>Rameau_méningé_du_nerf_mandibulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La branche méningée du nerf mandibulaire pénètre dans le crâne par le foramen épineux avec l'artère méningée moyenne.
 Elle se divise en deux branches, une antérieure et une postérieure, qui accompagnent les principales divisions de l'artère méningée moyenne et innervent la dure-mère :
